--- a/tmpl.xlsx
+++ b/tmpl.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$23</definedName>
@@ -112,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -126,13 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -142,12 +134,6 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -158,6 +144,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -172,6 +171,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -180,66 +195,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +232,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -261,56 +255,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,192 +336,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -546,15 +545,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +593,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -616,43 +637,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,19 +662,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,163 +683,154 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -945,9 +922,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:colOff>354965</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -962,7 +939,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17508220" y="571500"/>
+              <a:off x="25700990" y="622300"/>
               <a:ext cx="1228725" cy="342900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1238,92 +1215,83 @@
   <sheetPr/>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="33.3833333333333" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5916666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.2333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6083333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.675" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="24.2583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6083333333333" style="3" customWidth="1"/>
+    <col min="4" max="5" width="33.3833333333333" style="1" customWidth="1"/>
+    <col min="6" max="11" width="18.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="37.2" style="1" customWidth="1"/>
+    <col min="13" max="14" width="21.9083333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.05" style="4" customWidth="1"/>
+    <col min="17" max="18" width="27.05" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="33.3833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="49" customHeight="1" spans="1:18">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="3:18">
-      <c r="C2" s="15" t="s">
+    <row r="2" customHeight="1" spans="3:18">
+      <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1350,17 +1318,17 @@
       <c r="L2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1368,181 +1336,171 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="10"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
+      <c r="M3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="6:18">
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="10"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
+      <c r="M4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" customHeight="1" spans="6:18">
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="10"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
+      <c r="M5" s="9"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="6:18">
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="10"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="6:18">
+      <c r="M6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:18">
+      <c r="C7" s="3"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="10"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
+      <c r="M7" s="9"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="6:18">
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="10"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:18">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" customHeight="1" spans="6:18">
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13"/>
+      <c r="M9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" customHeight="1" spans="6:18">
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="10"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="13"/>
+      <c r="M10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="6:18">
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="10"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="13"/>
+      <c r="M11" s="9"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="6:18">
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="10"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="13"/>
+      <c r="M12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="6:18">
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="10"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="13"/>
+      <c r="M13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" customHeight="1" spans="6:18">
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
+      <c r="M14" s="9"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="6:18">
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="10"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="13"/>
+      <c r="M15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="6:18">
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="10"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="13"/>
+      <c r="M16" s="9"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" customHeight="1" spans="6:18">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="10"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="13"/>
+      <c r="M17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" customHeight="1" spans="6:18">
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="10"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="13"/>
+      <c r="M18" s="9"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="6:18">
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="10"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="13"/>
+      <c r="M19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" customHeight="1" spans="6:18">
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="10"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="13"/>
+      <c r="M20" s="9"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="6:18">
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="10"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="13"/>
+      <c r="M21" s="9"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="6:18">
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="10"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="13"/>
+      <c r="M22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" customHeight="1" spans="6:18">
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="10"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="13"/>
+      <c r="M23" s="9"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:F23">
@@ -1554,6 +1512,9 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C2" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <controls>
@@ -1570,9 +1531,9 @@
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>342900</xdr:rowOff>
+                <xdr:colOff>354965</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -1584,20 +1545,4 @@
     </mc:AlternateContent>
   </controls>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>